--- a/biology/Botanique/Henry_Potonié/Henry_Potonié.xlsx
+++ b/biology/Botanique/Henry_Potonié/Henry_Potonié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry_Potoni%C3%A9</t>
+          <t>Henry_Potonié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Potonié (né le 16 novembre 1857 à Berlin et décédé le 28 novembre 1913 dans le même lieu) est un botaniste et paléontologue allemand, connu de par ses études sur la formation du charbon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henry_Potoni%C3%A9</t>
+          <t>Henry_Potonié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Potonié nait à Berlin, en Allemagne. Il étudie la botanique à l'université de Berlin, et, à partir de 1880, prend un poste de chercheur assistant au jardin botanique de Berlin. En 1885, il s'associe à des recherches en géologie, et, à partir de ce moment, dévoue la plupart de son temps à des recherches en paléobotanique. En 1891, il devient professeur de paléobotanique à l'Académie des mines à Berlin, et vers 1901, devient un professeur de paléobotanique et de géologie à l'université.
 En 1888, il devient éditeur de Naturwissenschaftliche Wochenschrift, un périodique auquel il était associé depuis 24 ans, et soutient plusieurs associations dédiées à la popularisation de la science à Berlin, telle qu’Urania. En 1899, il publie Lehrbuch der Pflanzenpalaeontologie, un livre sur la paléobotanique ayant reçu une critique favorable à son époque. La seconde édition est publiée en 1921 par Walther Gothan avec le titre Lehrbuch der Paläobotanik.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henry_Potoni%C3%A9</t>
+          <t>Henry_Potonié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Potonié est fils de l'écrivain français Edmond Potonié et le père de Robert Potonié (1889-1974), minéralogiste et paléobotaniste allemand[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Potonié est fils de l'écrivain français Edmond Potonié et le père de Robert Potonié (1889-1974), minéralogiste et paléobotaniste allemand.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Henry_Potoni%C3%A9</t>
+          <t>Henry_Potonié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Lehrbuch der Pflanzenpalaeontologie mit besonderer Rücksicht auf die Bedürfnisse des Geologen, Berlin, Dümmler, 1899 (lire en ligne)
 (de) Illustrierte Flora von Nord- und Mittel-Deutschland mit einer Einführung in die Botanik [« Flore illustrée du nord et du centre de l'Allemagne »], 1885.
